--- a/Quants.xlsx
+++ b/Quants.xlsx
@@ -1,37 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carmen\Documents\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1B393-E062-48CE-A1C5-59071D2D6D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+  <si>
+    <t>DANSKE BANK</t>
+  </si>
+  <si>
+    <t>HSBC HOLDINGS</t>
+  </si>
+  <si>
+    <t>SKANDINAVISKA ENSKILDA BANKEN A</t>
+  </si>
+  <si>
+    <t>SVENSKA HANDELSBANKEN A</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER</t>
+  </si>
+  <si>
+    <t>DNB BANK</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS</t>
+  </si>
+  <si>
+    <t>SWEDBANK A</t>
+  </si>
+  <si>
+    <t>SANTANDER BANK POLSKA</t>
+  </si>
+  <si>
+    <t>PKO BANK</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>r_squared</t>
+  </si>
+  <si>
+    <t>Equally Weighted Portfolio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +115,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,218 +439,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DANSKE BANK</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HSBC HOLDINGS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SKANDINAVISKA ENSKILDA BANKEN A</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SVENSKA HANDELSBANKEN A</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>BANCO SANTANDER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DNB BANK</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BNP PARIBAS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SWEDBANK A</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SANTANDER BANK POLSKA</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PKO BANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.3080941098140805</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.455700245666427</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2784667490073744</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.148088729024784</v>
-      </c>
-      <c r="F2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-0.30809410981408047</v>
+      </c>
+      <c r="C2">
+        <v>-0.45570024566642697</v>
+      </c>
+      <c r="D2">
+        <v>0.27846674900737439</v>
+      </c>
+      <c r="E2">
+        <v>0.14808872902478401</v>
+      </c>
+      <c r="F2">
         <v>-1.113853702553369</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.3706637264889406</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.6880996744976267</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4740105801101721</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.04276535392488064</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.5372740546643001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>beta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.083322975326464</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9658680224538829</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.171845431691323</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.839430840900425</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G2">
+        <v>0.37066372648894058</v>
+      </c>
+      <c r="H2">
+        <v>-0.68809967449762666</v>
+      </c>
+      <c r="I2">
+        <v>0.47401058011017211</v>
+      </c>
+      <c r="J2">
+        <v>-4.2765353924880643E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.53727405466430012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.0833229753264639</v>
+      </c>
+      <c r="C3">
+        <v>0.96586802245388292</v>
+      </c>
+      <c r="D3">
+        <v>1.1718454316913229</v>
+      </c>
+      <c r="E3">
+        <v>0.83943084090042497</v>
+      </c>
+      <c r="F3">
         <v>1.397021438703369</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.10035522574951</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>1.1003552257495099</v>
+      </c>
+      <c r="H3">
         <v>1.737865631703883</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.000714117711352</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3">
+        <v>1.0007141177113521</v>
+      </c>
+      <c r="J3">
         <v>1.053130788998307</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.09032311163556</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.215282425034196e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.848000590622249e-15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.011010169430516e-24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.376074332254605e-18</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.426421010337843e-20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.130261970053833e-23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.968719133659307e-31</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.021806702135901e-16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.039703969862582e-13</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.087595281989805e-16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>r_squared</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="K3">
+        <v>1.0903231116355601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4.2152824250341959E-14</v>
+      </c>
+      <c r="C4">
+        <v>6.8480005906222487E-15</v>
+      </c>
+      <c r="D4">
+        <v>2.0110101694305161E-24</v>
+      </c>
+      <c r="E4">
+        <v>3.3760743322546051E-18</v>
+      </c>
+      <c r="F4">
+        <v>7.4264210103378434E-20</v>
+      </c>
+      <c r="G4">
+        <v>4.1302619700538331E-23</v>
+      </c>
+      <c r="H4">
+        <v>5.9687191336593067E-31</v>
+      </c>
+      <c r="I4">
+        <v>2.021806702135901E-16</v>
+      </c>
+      <c r="J4">
+        <v>4.0397039698625819E-13</v>
+      </c>
+      <c r="K4">
+        <v>9.0875952819898054E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>0.2931034248117601</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.3083010127085439</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4685720259338776</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>0.30830101270854388</v>
+      </c>
+      <c r="D5">
+        <v>0.46857202593387759</v>
+      </c>
+      <c r="E5">
         <v>0.3686284516198145</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.3969112259791207</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4488825889043802</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5566305922063441</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3368696654194446</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2737594362951274</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3248225177976891</v>
-      </c>
+      <c r="F5">
+        <v>0.39691122597912071</v>
+      </c>
+      <c r="G5">
+        <v>0.44888258890438021</v>
+      </c>
+      <c r="H5">
+        <v>0.55663059220634414</v>
+      </c>
+      <c r="I5">
+        <v>0.33686966541944457</v>
+      </c>
+      <c r="J5">
+        <v>0.27375943629512739</v>
+      </c>
+      <c r="K5">
+        <v>0.32482251779768911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-0.30809410981408047</v>
+      </c>
+      <c r="F11">
+        <v>1.0833229753264639</v>
+      </c>
+      <c r="G11">
+        <v>4.2152824250341959E-14</v>
+      </c>
+      <c r="H11">
+        <v>0.2931034248117601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-0.45570024566642697</v>
+      </c>
+      <c r="F12">
+        <v>0.96586802245388292</v>
+      </c>
+      <c r="G12">
+        <v>6.8480005906222487E-15</v>
+      </c>
+      <c r="H12">
+        <v>0.30830101270854388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.27846674900737439</v>
+      </c>
+      <c r="F13">
+        <v>1.1718454316913229</v>
+      </c>
+      <c r="G13">
+        <v>2.0110101694305161E-24</v>
+      </c>
+      <c r="H13">
+        <v>0.46857202593387759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0.14808872902478401</v>
+      </c>
+      <c r="F14">
+        <v>0.83943084090042497</v>
+      </c>
+      <c r="G14">
+        <v>3.3760743322546051E-18</v>
+      </c>
+      <c r="H14">
+        <v>0.3686284516198145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>-1.113853702553369</v>
+      </c>
+      <c r="F15">
+        <v>1.397021438703369</v>
+      </c>
+      <c r="G15">
+        <v>7.4264210103378434E-20</v>
+      </c>
+      <c r="H15">
+        <v>0.39691122597912071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0.37066372648894058</v>
+      </c>
+      <c r="F16">
+        <v>1.1003552257495099</v>
+      </c>
+      <c r="G16">
+        <v>4.1302619700538331E-23</v>
+      </c>
+      <c r="H16">
+        <v>0.44888258890438021</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>-0.68809967449762666</v>
+      </c>
+      <c r="F17">
+        <v>1.737865631703883</v>
+      </c>
+      <c r="G17">
+        <v>5.9687191336593067E-31</v>
+      </c>
+      <c r="H17">
+        <v>0.55663059220634414</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.47401058011017211</v>
+      </c>
+      <c r="F18">
+        <v>1.0007141177113521</v>
+      </c>
+      <c r="G18">
+        <v>2.021806702135901E-16</v>
+      </c>
+      <c r="H18">
+        <v>0.33686966541944457</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>-4.2765353924880643E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.053130788998307</v>
+      </c>
+      <c r="G19">
+        <v>4.0397039698625819E-13</v>
+      </c>
+      <c r="H19">
+        <v>0.27375943629512739</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>-0.53727405466430012</v>
+      </c>
+      <c r="F20">
+        <v>1.0903231116355601</v>
+      </c>
+      <c r="G20">
+        <v>9.0875952819898054E-16</v>
+      </c>
+      <c r="H20">
+        <v>0.32482251779768911</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>-0.1874557356489415</v>
+      </c>
+      <c r="F21">
+        <v>1.1439877584874081</v>
+      </c>
+      <c r="G21">
+        <v>8.5504134246040214E-36</v>
+      </c>
+      <c r="H21">
+        <v>0.61247613942271384</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
